--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3838.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3838.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.323746450033672</v>
+        <v>3.671904563903809</v>
       </c>
       <c r="B1">
-        <v>2.208555440890495</v>
+        <v>3.963855504989624</v>
       </c>
       <c r="C1">
-        <v>4.718909076468805</v>
+        <v>7.640444755554199</v>
       </c>
       <c r="D1">
-        <v>3.402011911238297</v>
+        <v>7.806790351867676</v>
       </c>
       <c r="E1">
-        <v>1.047914880047279</v>
+        <v>5.962972640991211</v>
       </c>
     </row>
   </sheetData>
